--- a/data/EXUS.xlsx
+++ b/data/EXUS.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="2025-02-22" sheetId="2" r:id="Rb0671b2914da4b16"/>
+    <x:sheet name="2025-02-23" sheetId="2" r:id="Ra0d487988d814708"/>
   </x:sheets>
 </x:workbook>
 </file>
